--- a/FileMaster/EmailFilterRulesFileforUAT.xlsx
+++ b/FileMaster/EmailFilterRulesFileforUAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\Email_Dispatcher\FileMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaadmin\Documents\UiPath\HPC_EMAIL_DISPATCHER\FileMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D95586-3501-48FA-A007-87E4E17307E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682185C9-F0CC-4DA0-A597-662402A80FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{593B68BB-54CF-4BB6-BC96-F8CE6F80722F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{593B68BB-54CF-4BB6-BC96-F8CE6F80722F}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Test Process2</t>
+  </si>
+  <si>
+    <t>PO#</t>
+  </si>
+  <si>
+    <t>Inbox\PO_ACK_SAP_Outgoing</t>
   </si>
 </sst>
 </file>
@@ -554,21 +560,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A2464-AC57-4E0C-9971-A2534E3FE894}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -618,16 +624,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -640,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -656,16 +662,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -678,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -689,8 +695,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -698,7 +723,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{79DA47C6-24C4-44E7-B40D-068EFA9D4663}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{79DA47C6-24C4-44E7-B40D-068EFA9D4663}">
       <formula1>"To,From,Subject,Message"</formula1>
     </dataValidation>
   </dataValidations>
@@ -708,6 +733,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b88a4b3-4b01-498f-bce8-aa9268d47213" xsi:nil="true"/>
@@ -716,15 +750,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,6 +942,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{472537B9-9FBB-4BDA-AE32-276FE66D52C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8F1029-A1C1-4318-A267-C6F9370B1780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -929,14 +962,6 @@
     <ds:schemaRef ds:uri="93f079f6-b6ae-4158-ba8e-f93b699e1d81"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{472537B9-9FBB-4BDA-AE32-276FE66D52C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
